--- a/tests/test_files/test_renewables_excel.xlsx
+++ b/tests/test_files/test_renewables_excel.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganma\capp30122\30122-project-flavortown\data\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganma\capp30122\30122-project-flavortown\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD48EBD-8DD1-439A-8928-7CC4C45750E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD2630E-8A0E-444D-9686-51DD972B244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Total renewables" sheetId="1" r:id="rId1"/>
-    <sheet name="Total energy production" sheetId="2" r:id="rId2"/>
+    <sheet name="Other renewables" sheetId="1" r:id="rId1"/>
+    <sheet name="Total primary energy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51161579-A284-4C48-A9DE-8766BFE9F47E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
